--- a/api.xlsx
+++ b/api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddn\OneDrive\바탕 화면\java\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03221A45-518A-453E-9DC1-567E1D450B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06052688-E426-4F75-AA9C-08DCD9AEB567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>회원 관리 서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -309,6 +309,10 @@
   </si>
   <si>
     <t>한 회원 조회(게시판에서 누르먄)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,21 +439,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -474,6 +469,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,25 +789,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5BD86-DEF0-403E-96ED-DC7FBCD1E948}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.09765625" customWidth="1"/>
-    <col min="3" max="3" width="38.8984375" customWidth="1"/>
-    <col min="4" max="4" width="25.8984375" customWidth="1"/>
-    <col min="5" max="5" width="26.19921875" customWidth="1"/>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
+    <col min="3" max="3" width="38.875" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -832,69 +830,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="10"/>
       <c r="C4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
       <c r="C6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
@@ -902,8 +900,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -913,64 +911,67 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>31</v>
       </c>
@@ -998,19 +999,19 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1025,82 +1026,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40349A76-18F8-4548-9316-A39759849876}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.8984375" customWidth="1"/>
-    <col min="12" max="12" width="11.8984375" customWidth="1"/>
+    <col min="2" max="2" width="39.875" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>1234</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="8"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I5" s="4"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="I7" s="7" t="s">
+      <c r="I6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="I8" s="9" t="s">
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12" t="s">
+      <c r="J8" s="9"/>
+      <c r="K8" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -1108,51 +1101,51 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="10"/>
       <c r="D16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="3"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A18" s="3"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>64</v>
       </c>
@@ -1163,78 +1156,78 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I19" s="5" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="M19" s="5" t="s">
+      <c r="J19" s="3"/>
+      <c r="M19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I20" s="9" t="s">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="10"/>
-      <c r="M20" s="7" t="s">
+      <c r="J20" s="7"/>
+      <c r="M20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="M21" s="7" t="s">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="M22" s="7" t="s">
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N22" s="8"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="M23" s="7" t="s">
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="8"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="M24" s="7" t="s">
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="8"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="M25" s="7"/>
-      <c r="N25" s="8"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M25" s="4"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I26" t="s">
         <v>65</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="N26" s="8"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I27" s="5" t="s">
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="M27" s="9" t="s">
+      <c r="J27" s="3"/>
+      <c r="M27" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N27" s="10"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="I28" s="9" t="s">
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="10"/>
+      <c r="J28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1252,7 +1245,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddn\OneDrive\바탕 화면\java\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06052688-E426-4F75-AA9C-08DCD9AEB567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCBDA58-B3CE-467B-ACAA-5D61BEEEE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,11 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
-  <si>
-    <t>회원 관리 서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>큰 도매인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,11 +304,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한 회원 조회(게시판에서 누르먄)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 회원 조회(게시판에서 누르면)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 1개( 그룹 생성 기능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 관리 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹명 , 회원 명, 제한 회원으로 검색하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제한 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버 id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 회원 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 관리 ( 그룹 명만 변경 가능 따른 건 놉)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성한 글 목록 체크 번호, 게시물 이름,  제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 상세 조회 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- navbar 형태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 삭제시 멤버 그룹 기본으로 다 세팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그룹 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼으로 게시판 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 요약 구체</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,12 +861,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5BD86-DEF0-403E-96ED-DC7FBCD1E948}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="26.125" customWidth="1"/>
     <col min="3" max="3" width="38.875" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
@@ -804,176 +877,176 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -993,27 +1066,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC3178-36BF-4FD4-8F5C-77529C0F111A}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1024,29 +1108,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40349A76-18F8-4548-9316-A39759849876}">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="39.875" customWidth="1"/>
     <col min="12" max="12" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -1054,7 +1139,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4">
         <v>1234</v>
@@ -1063,50 +1148,50 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4"/>
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="4"/>
       <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="I8" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J8" s="9"/>
       <c r="K8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1118,116 +1203,178 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19" s="3"/>
       <c r="M19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q19" s="7"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J20" s="7"/>
       <c r="M20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M21" s="4" t="s">
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M22" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M24" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
       <c r="I27" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J27" s="3"/>
       <c r="M27" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
+      </c>
       <c r="I28" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J28" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1243,7 +1390,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4CDC6-B526-4576-B161-2921419D6BBE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/api.xlsx
+++ b/api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddn\OneDrive\바탕 화면\java\shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\개인\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCBDA58-B3CE-467B-ACAA-5D61BEEEE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF19BFC8-CB61-45C4-9F91-3AFDAC420AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>큰 도매인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,6 +385,13 @@
   </si>
   <si>
     <t>기능 요약 구체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bcho.tistory.com/953</t>
+  </si>
+  <si>
+    <t>rest api 관련된 블로그</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,28 +866,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5BD86-DEF0-403E-96ED-DC7FBCD1E948}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="38.875" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="26.09765625" customWidth="1"/>
+    <col min="3" max="3" width="38.8984375" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" customWidth="1"/>
+    <col min="5" max="5" width="26.19921875" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -903,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
@@ -911,7 +918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
@@ -920,28 +927,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>11</v>
@@ -950,21 +957,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -973,7 +980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="10" t="s">
         <v>7</v>
       </c>
@@ -984,7 +991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>19</v>
@@ -993,7 +1000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" t="s">
@@ -1003,7 +1010,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>42</v>
@@ -1012,7 +1019,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -1021,14 +1028,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>10</v>
@@ -1037,16 +1044,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C24" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1068,31 +1083,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC3178-36BF-4FD4-8F5C-77529C0F111A}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="19.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1110,23 +1125,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40349A76-18F8-4548-9316-A39759849876}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="2" max="2" width="39.875" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="39.8984375" customWidth="1"/>
+    <col min="12" max="12" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1137,7 +1152,7 @@
       <c r="K3" s="8"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -1146,27 +1161,27 @@
       </c>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="I5" s="4"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>38</v>
       </c>
       <c r="I6" s="4"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="I8" s="6" t="s">
         <v>44</v>
       </c>
@@ -1178,7 +1193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -1186,7 +1201,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
@@ -1194,13 +1209,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" t="s">
         <v>28</v>
@@ -1212,7 +1227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" t="s">
         <v>29</v>
@@ -1222,7 +1237,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" t="s">
         <v>62</v>
@@ -1232,7 +1247,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" t="s">
         <v>63</v>
@@ -1248,7 +1263,7 @@
       </c>
       <c r="Q18" s="3"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="I19" s="2" t="s">
         <v>49</v>
       </c>
@@ -1262,7 +1277,7 @@
       </c>
       <c r="Q19" s="7"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="I20" s="6" t="s">
         <v>48</v>
       </c>
@@ -1272,35 +1287,35 @@
       </c>
       <c r="N20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M21" s="4" t="s">
         <v>53</v>
       </c>
       <c r="N21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M22" s="4" t="s">
         <v>54</v>
       </c>
       <c r="N22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M23" s="4" t="s">
         <v>56</v>
       </c>
       <c r="N23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M24" s="4" t="s">
         <v>57</v>
       </c>
       <c r="N24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>71</v>
       </c>
@@ -1312,7 +1327,7 @@
       </c>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1328,7 +1343,7 @@
       </c>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>81</v>
       </c>
@@ -1340,7 +1355,7 @@
       </c>
       <c r="J28" s="7"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -1348,17 +1363,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1366,12 +1381,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
         <v>84</v>
       </c>
@@ -1390,11 +1405,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4CDC6-B526-4576-B161-2921419D6BBE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\개인\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF19BFC8-CB61-45C4-9F91-3AFDAC420AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18FE359-6E5D-413A-BECF-427533AB654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="board" sheetId="2" r:id="rId2"/>
+    <sheet name="member" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
   <si>
     <t>큰 도매인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -392,6 +392,43 @@
   </si>
   <si>
     <t>rest api 관련된 블로그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 &amp; 카테고리 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 종류 선택
+게시판 only , 게시판+카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 only 면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,6 +588,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5BD86-DEF0-403E-96ED-DC7FBCD1E948}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1081,38 +1121,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC3178-36BF-4FD4-8F5C-77529C0F111A}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.3984375" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="28.796875" customWidth="1"/>
+    <col min="9" max="9" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I16" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I18" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1125,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40349A76-18F8-4548-9316-A39759849876}">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>

--- a/api.xlsx
+++ b/api.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\개인\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18FE359-6E5D-413A-BECF-427533AB654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1A2545-724E-4C21-B140-030C38CF92A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
   <si>
     <t>큰 도매인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +429,74 @@
   </si>
   <si>
     <t>category_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;-BasTime?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by jpa?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 고민 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근 권한 &lt;- combobox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- radio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>board_t_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categort_t_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리 페이지는 how?...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub: 카테고리 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; new page로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD 하고 -&gt; 보여주기 js?, jquery?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +655,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -908,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5BD86-DEF0-403E-96ED-DC7FBCD1E948}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -951,7 +1019,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
@@ -959,38 +1027,38 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
@@ -998,21 +1066,21 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
       <c r="C10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -1021,7 +1089,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1032,8 +1100,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
@@ -1041,8 +1109,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" t="s">
         <v>22</v>
       </c>
@@ -1051,7 +1119,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1060,8 +1128,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C16" t="s">
@@ -1069,15 +1137,15 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
       <c r="C17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="s">
@@ -1085,8 +1153,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
       <c r="C19" t="s">
         <v>25</v>
       </c>
@@ -1121,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EC3178-36BF-4FD4-8F5C-77529C0F111A}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1132,24 +1200,26 @@
     <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="2" max="2" width="28.796875" customWidth="1"/>
     <col min="9" max="9" width="11.8984375" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -1157,50 +1227,114 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>113</v>
+      </c>
       <c r="I10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
       </c>
       <c r="I11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="M13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I15" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="M15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="I16" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="M16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="M17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="I18" t="s">
         <v>95</v>
+      </c>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="M19" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M21" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1424,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
@@ -1298,17 +1432,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D15" t="s">
@@ -1316,27 +1450,27 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="11"/>
       <c r="P17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" t="s">
         <v>63</v>
       </c>

--- a/api.xlsx
+++ b/api.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\개인\shop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkddn\OneDrive\바탕 화면\java\shop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1A2545-724E-4C21-B140-030C38CF92A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771A49FE-D9A4-46D6-9A67-AF64CBD91C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{3210F3A5-5F44-4EBD-B55D-715E23708ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="117">
   <si>
     <t>큰 도매인</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,6 +497,14 @@
   </si>
   <si>
     <t>ADD 하고 -&gt; 보여주기 js?, jquery?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1 &lt;- 비식별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">비식별 &amp; 1:다 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1192,7 +1200,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1348,7 +1356,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1458,6 +1466,9 @@
       <c r="D16" t="s">
         <v>61</v>
       </c>
+      <c r="K16" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
@@ -1526,6 +1537,9 @@
         <v>56</v>
       </c>
       <c r="N23" s="5"/>
+      <c r="P23" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="M24" s="4" t="s">
@@ -1588,6 +1602,9 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B32" t="s">
         <v>77</v>
+      </c>
+      <c r="K32" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
